--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnas-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnas-Avpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H2">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I2">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J2">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02490933333333334</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N2">
-        <v>0.074728</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O2">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P2">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q2">
-        <v>4.984634267965334</v>
+        <v>42.76976810560066</v>
       </c>
       <c r="R2">
-        <v>29.907805607792</v>
+        <v>256.618608633604</v>
       </c>
       <c r="S2">
-        <v>0.04519912261490147</v>
+        <v>0.1281694982609498</v>
       </c>
       <c r="T2">
-        <v>0.03643996902955696</v>
+        <v>0.1052246930055852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H3">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I3">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J3">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,33 +623,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.09933500000000001</v>
+        <v>0.234272</v>
       </c>
       <c r="N3">
-        <v>0.298005</v>
+        <v>0.702816</v>
       </c>
       <c r="O3">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P3">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q3">
-        <v>19.878036813845</v>
+        <v>55.30746860297601</v>
       </c>
       <c r="R3">
-        <v>119.26822088307</v>
+        <v>331.844811617856</v>
       </c>
       <c r="S3">
-        <v>0.1802478928226864</v>
+        <v>0.1657416164479602</v>
       </c>
       <c r="T3">
-        <v>0.1453175914068772</v>
+        <v>0.1360706794176448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>117.551811</v>
+        <v>236.082283</v>
       </c>
       <c r="H4">
-        <v>352.655433</v>
+        <v>472.164566</v>
       </c>
       <c r="I4">
-        <v>0.1324349524948329</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J4">
-        <v>0.1601555059528365</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02490933333333334</v>
+        <v>0.08782366666666667</v>
       </c>
       <c r="N4">
-        <v>0.074728</v>
+        <v>0.263471</v>
       </c>
       <c r="O4">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="P4">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="Q4">
-        <v>2.928137244136</v>
+        <v>20.73361172809767</v>
       </c>
       <c r="R4">
-        <v>26.353235197224</v>
+        <v>124.401670368586</v>
       </c>
       <c r="S4">
-        <v>0.02655144333888835</v>
+        <v>0.06213306103896401</v>
       </c>
       <c r="T4">
-        <v>0.03210904494327994</v>
+        <v>0.05101004811621573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>352.655433</v>
       </c>
       <c r="I5">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J5">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +747,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09933500000000001</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N5">
-        <v>0.298005</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O5">
-        <v>0.7995133245513544</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P5">
-        <v>0.7995133245513544</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q5">
-        <v>11.677009145685</v>
+        <v>21.296234655878</v>
       </c>
       <c r="R5">
-        <v>105.093082311165</v>
+        <v>191.666111902902</v>
       </c>
       <c r="S5">
-        <v>0.1058835091559445</v>
+        <v>0.06381909071734958</v>
       </c>
       <c r="T5">
-        <v>0.1280464610095565</v>
+        <v>0.07859136908248369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.58969233333333</v>
+        <v>117.551811</v>
       </c>
       <c r="H6">
-        <v>247.769077</v>
+        <v>352.655433</v>
       </c>
       <c r="I6">
-        <v>0.09304630773172745</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J6">
-        <v>0.1125222474210465</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.02490933333333334</v>
+        <v>0.234272</v>
       </c>
       <c r="N6">
-        <v>0.074728</v>
+        <v>0.702816</v>
       </c>
       <c r="O6">
-        <v>0.2004866754486455</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P6">
-        <v>0.2004866754486455</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q6">
-        <v>2.057254176228445</v>
+        <v>27.539097866592</v>
       </c>
       <c r="R6">
-        <v>18.515287586056</v>
+        <v>247.851880799328</v>
       </c>
       <c r="S6">
-        <v>0.01865454489990564</v>
+        <v>0.08252727364350806</v>
       </c>
       <c r="T6">
-        <v>0.02255921129945554</v>
+        <v>0.1016299566381135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.58969233333333</v>
+        <v>117.551811</v>
       </c>
       <c r="H7">
-        <v>247.769077</v>
+        <v>352.655433</v>
       </c>
       <c r="I7">
-        <v>0.09304630773172745</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J7">
-        <v>0.1125222474210465</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.09933500000000001</v>
+        <v>0.08782366666666667</v>
       </c>
       <c r="N7">
-        <v>0.298005</v>
+        <v>0.263471</v>
       </c>
       <c r="O7">
-        <v>0.7995133245513544</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="P7">
-        <v>0.7995133245513544</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="Q7">
-        <v>8.204047087931666</v>
+        <v>10.323831065327</v>
       </c>
       <c r="R7">
-        <v>73.836423791385</v>
+        <v>92.91447958794301</v>
       </c>
       <c r="S7">
-        <v>0.07439176283182181</v>
+        <v>0.03093774659957757</v>
       </c>
       <c r="T7">
-        <v>0.08996303612159094</v>
+        <v>0.03809894240512511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>260.790245</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H8">
-        <v>521.5804899999999</v>
+        <v>196.743622</v>
       </c>
       <c r="I8">
-        <v>0.2938086909413146</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J8">
-        <v>0.236871403229107</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.02490933333333334</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N8">
-        <v>0.074728</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O8">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P8">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q8">
-        <v>6.496111142786667</v>
+        <v>11.88099756614089</v>
       </c>
       <c r="R8">
-        <v>38.97666685671999</v>
+        <v>106.928978095268</v>
       </c>
       <c r="S8">
-        <v>0.05890472766474274</v>
+        <v>0.03560415602750103</v>
       </c>
       <c r="T8">
-        <v>0.04748956014225923</v>
+        <v>0.04384549099297914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,25 +968,25 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>260.790245</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H9">
-        <v>521.5804899999999</v>
+        <v>196.743622</v>
       </c>
       <c r="I9">
-        <v>0.2938086909413146</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J9">
-        <v>0.236871403229107</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,33 +995,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09933500000000001</v>
+        <v>0.234272</v>
       </c>
       <c r="N9">
-        <v>0.298005</v>
+        <v>0.702816</v>
       </c>
       <c r="O9">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P9">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q9">
-        <v>25.905598987075</v>
+        <v>15.36384060439467</v>
       </c>
       <c r="R9">
-        <v>155.43359392245</v>
+        <v>138.274565439552</v>
       </c>
       <c r="S9">
-        <v>0.2349039632765718</v>
+        <v>0.04604130040556872</v>
       </c>
       <c r="T9">
-        <v>0.1893818430868478</v>
+        <v>0.05669853319028662</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>122.4736406666667</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H10">
-        <v>367.420922</v>
+        <v>196.743622</v>
       </c>
       <c r="I10">
-        <v>0.1379799311093492</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J10">
-        <v>0.166861128892824</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,33 +1057,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.02490933333333334</v>
+        <v>0.08782366666666667</v>
       </c>
       <c r="N10">
-        <v>0.074728</v>
+        <v>0.263471</v>
       </c>
       <c r="O10">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="P10">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="Q10">
-        <v>3.050736739912889</v>
+        <v>5.759582092440223</v>
       </c>
       <c r="R10">
-        <v>27.456630659216</v>
+        <v>51.83623883196201</v>
       </c>
       <c r="S10">
-        <v>0.02766313766674656</v>
+        <v>0.01725991932334437</v>
       </c>
       <c r="T10">
-        <v>0.03345343299333021</v>
+        <v>0.02125509271015174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>122.4736406666667</v>
+        <v>137.8159335</v>
       </c>
       <c r="H11">
-        <v>367.420922</v>
+        <v>275.631867</v>
       </c>
       <c r="I11">
-        <v>0.1379799311093492</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J11">
-        <v>0.166861128892824</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,33 +1119,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09933500000000001</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N11">
-        <v>0.298005</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O11">
-        <v>0.7995133245513544</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P11">
-        <v>0.7995133245513544</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q11">
-        <v>12.16591909562333</v>
+        <v>24.96737765388299</v>
       </c>
       <c r="R11">
-        <v>109.49327186061</v>
+        <v>149.804265923298</v>
       </c>
       <c r="S11">
-        <v>0.1103167934426026</v>
+        <v>0.07482051945871525</v>
       </c>
       <c r="T11">
-        <v>0.1334076958994938</v>
+        <v>0.06142620746265677</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>104.1027373333333</v>
+        <v>137.8159335</v>
       </c>
       <c r="H12">
-        <v>312.308212</v>
+        <v>275.631867</v>
       </c>
       <c r="I12">
-        <v>0.1172831022851878</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J12">
-        <v>0.1418321540677518</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.02490933333333334</v>
+        <v>0.234272</v>
       </c>
       <c r="N12">
-        <v>0.074728</v>
+        <v>0.702816</v>
       </c>
       <c r="O12">
-        <v>0.2004866754486455</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P12">
-        <v>0.2004866754486455</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q12">
-        <v>2.593129785148445</v>
+        <v>32.286414372912</v>
       </c>
       <c r="R12">
-        <v>23.338168066336</v>
+        <v>193.718486237472</v>
       </c>
       <c r="S12">
-        <v>0.02351369926346075</v>
+        <v>0.0967537051078695</v>
       </c>
       <c r="T12">
-        <v>0.02843545704076364</v>
+        <v>0.07943293104261426</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>137.8159335</v>
+      </c>
+      <c r="H13">
+        <v>275.631867</v>
+      </c>
+      <c r="I13">
+        <v>0.2078451623916705</v>
+      </c>
+      <c r="J13">
+        <v>0.1706368808656166</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.08782366666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.263471</v>
+      </c>
+      <c r="O13">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="P13">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="Q13">
+        <v>12.1035006050595</v>
+      </c>
+      <c r="R13">
+        <v>72.62100363035701</v>
+      </c>
+      <c r="S13">
+        <v>0.03627093782508577</v>
+      </c>
+      <c r="T13">
+        <v>0.02977774236034555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>104.1027373333333</v>
-      </c>
-      <c r="H13">
-        <v>312.308212</v>
-      </c>
-      <c r="I13">
-        <v>0.1172831022851878</v>
-      </c>
-      <c r="J13">
-        <v>0.1418321540677518</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>39.78016766666667</v>
+      </c>
+      <c r="H14">
+        <v>119.340503</v>
+      </c>
+      <c r="I14">
+        <v>0.05999390055030331</v>
+      </c>
+      <c r="J14">
+        <v>0.07388075774581522</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M13">
-        <v>0.09933500000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.298005</v>
-      </c>
-      <c r="O13">
-        <v>0.7995133245513544</v>
-      </c>
-      <c r="P13">
-        <v>0.7995133245513544</v>
-      </c>
-      <c r="Q13">
-        <v>10.34104541300667</v>
-      </c>
-      <c r="R13">
-        <v>93.06940871706001</v>
-      </c>
-      <c r="S13">
-        <v>0.09376940302172707</v>
-      </c>
-      <c r="T13">
-        <v>0.1133966970269881</v>
+      <c r="M14">
+        <v>0.1811646666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.5434939999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.3599820106359796</v>
+      </c>
+      <c r="P14">
+        <v>0.3599820106359796</v>
+      </c>
+      <c r="Q14">
+        <v>7.206760815275778</v>
+      </c>
+      <c r="R14">
+        <v>64.860847337482</v>
+      </c>
+      <c r="S14">
+        <v>0.02159672494599319</v>
+      </c>
+      <c r="T14">
+        <v>0.02659574372064829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>39.78016766666667</v>
+      </c>
+      <c r="H15">
+        <v>119.340503</v>
+      </c>
+      <c r="I15">
+        <v>0.05999390055030331</v>
+      </c>
+      <c r="J15">
+        <v>0.07388075774581522</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.234272</v>
+      </c>
+      <c r="N15">
+        <v>0.702816</v>
+      </c>
+      <c r="O15">
+        <v>0.4655085737600355</v>
+      </c>
+      <c r="P15">
+        <v>0.4655085737600355</v>
+      </c>
+      <c r="Q15">
+        <v>9.319379439605335</v>
+      </c>
+      <c r="R15">
+        <v>83.87441495644801</v>
+      </c>
+      <c r="S15">
+        <v>0.0279276750794731</v>
+      </c>
+      <c r="T15">
+        <v>0.03439212616656514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>39.78016766666667</v>
+      </c>
+      <c r="H16">
+        <v>119.340503</v>
+      </c>
+      <c r="I16">
+        <v>0.05999390055030331</v>
+      </c>
+      <c r="J16">
+        <v>0.07388075774581522</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.08782366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.263471</v>
+      </c>
+      <c r="O16">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="P16">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="Q16">
+        <v>3.493640185101445</v>
+      </c>
+      <c r="R16">
+        <v>31.442761665913</v>
+      </c>
+      <c r="S16">
+        <v>0.01046950052483702</v>
+      </c>
+      <c r="T16">
+        <v>0.0128928878586018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>66.258798</v>
+      </c>
+      <c r="H17">
+        <v>198.776394</v>
+      </c>
+      <c r="I17">
+        <v>0.09992727459330304</v>
+      </c>
+      <c r="J17">
+        <v>0.1230575558299827</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1811646666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.5434939999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.3599820106359796</v>
+      </c>
+      <c r="P17">
+        <v>0.3599820106359796</v>
+      </c>
+      <c r="Q17">
+        <v>12.003753053404</v>
+      </c>
+      <c r="R17">
+        <v>108.033777480636</v>
+      </c>
+      <c r="S17">
+        <v>0.03597202122547087</v>
+      </c>
+      <c r="T17">
+        <v>0.04429850637162649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>66.258798</v>
+      </c>
+      <c r="H18">
+        <v>198.776394</v>
+      </c>
+      <c r="I18">
+        <v>0.09992727459330304</v>
+      </c>
+      <c r="J18">
+        <v>0.1230575558299827</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.234272</v>
+      </c>
+      <c r="N18">
+        <v>0.702816</v>
+      </c>
+      <c r="O18">
+        <v>0.4655085737600355</v>
+      </c>
+      <c r="P18">
+        <v>0.4655085737600355</v>
+      </c>
+      <c r="Q18">
+        <v>15.522581125056</v>
+      </c>
+      <c r="R18">
+        <v>139.703230125504</v>
+      </c>
+      <c r="S18">
+        <v>0.04651700307565593</v>
+      </c>
+      <c r="T18">
+        <v>0.05728434730481118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>66.258798</v>
+      </c>
+      <c r="H19">
+        <v>198.776394</v>
+      </c>
+      <c r="I19">
+        <v>0.09992727459330304</v>
+      </c>
+      <c r="J19">
+        <v>0.1230575558299827</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.08782366666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.263471</v>
+      </c>
+      <c r="O19">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="P19">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="Q19">
+        <v>5.819090589286001</v>
+      </c>
+      <c r="R19">
+        <v>52.371815303574</v>
+      </c>
+      <c r="S19">
+        <v>0.01743825029217625</v>
+      </c>
+      <c r="T19">
+        <v>0.02147470215354503</v>
       </c>
     </row>
   </sheetData>
